--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_10_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77175.90651462945</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77175.90651462945</v>
+        <v>5151068.340509114</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035423711.047386</v>
+        <v>38405940.90769839</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11131.74588839728</v>
+        <v>927845.5985726456</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21290.3218575133</v>
+        <v>1685813.628702266</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31436.48952831443</v>
+        <v>2443781.658831886</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41797.31166169603</v>
+        <v>3200989.991418653</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52158.13060873446</v>
+        <v>3958198.32400542</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62518.95274211605</v>
+        <v>4715406.656592187</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72879.76218776889</v>
+        <v>5472614.98917895</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83240.58113480733</v>
+        <v>6229823.321765712</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93601.40326818895</v>
+        <v>6987031.654352475</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103962.2222152274</v>
+        <v>7744239.986939237</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114323.0411622659</v>
+        <v>8501448.319526</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124683.8632956475</v>
+        <v>9258656.652112765</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>135044.6854290291</v>
+        <v>10015864.98469954</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145405.5075624107</v>
+        <v>10773073.31728631</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155766.3296957924</v>
+        <v>11530281.64987309</v>
       </c>
     </row>
   </sheetData>
